--- a/input/harp-campA-time-table.xlsx
+++ b/input/harp-campA-time-table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Python\summer-camp-time-table\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapmi\Desktop\summer-camp-time-table\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5EAF39-992D-444C-85AF-E0CEC5379B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65A5030-C413-40D8-A054-2A042B33D227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6720" yWindow="1425" windowWidth="22050" windowHeight="13425" activeTab="4" xr2:uid="{E318233D-D99F-47E3-BC58-6A555949ADA4}"/>
+    <workbookView xWindow="1365" yWindow="293" windowWidth="20295" windowHeight="11272" activeTab="4" xr2:uid="{E318233D-D99F-47E3-BC58-6A555949ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="53">
   <si>
     <t>Sivan MEGAN</t>
   </si>
@@ -193,12 +193,6 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>H2, H3, H4, H5, H6, H9 Observe MasterClass by Liya HUANG (Room Liya)</t>
-  </si>
-  <si>
-    <t>H1, H3, H5, H6, H7, H8 Observe MasterClass by Sivan MEGAN (Room Sivan)</t>
-  </si>
-  <si>
     <t>Harp MasterClass by Liya HUANG
 H1, H7, H8 
 (Room Liya)</t>
@@ -215,6 +209,18 @@
     <t>Harp MasterClass by Gwyneth WENTINK
 H3, H5, H6
 (Room GW)</t>
+  </si>
+  <si>
+    <t>H3, H5, H6 Observe MasterClass by Liya HUANG (Room Liya)</t>
+  </si>
+  <si>
+    <t>H2, H4, H9 Observe MasterClass by Liya HUANG (Room Liya)</t>
+  </si>
+  <si>
+    <t>H3, H5, H6 Observe MasterClass by Sivan MEGAN (Room Sivan)</t>
+  </si>
+  <si>
+    <t>H1, H7, H8 Observe MasterClass by Sivan MEGAN (Room Sivan)</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -491,17 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -522,9 +517,73 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -536,7 +595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -555,14 +614,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -599,16 +670,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,114 +682,154 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1066,12 +1171,12 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1091,7 +1196,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1102,97 +1207,97 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
@@ -1206,7 +1311,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
@@ -1220,7 +1325,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
@@ -1234,39 +1339,39 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
@@ -1280,7 +1385,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
@@ -1294,7 +1399,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
@@ -1308,111 +1413,111 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
@@ -1426,7 +1531,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
@@ -1440,7 +1545,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
@@ -1454,141 +1559,141 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>0.718749999999999</v>
       </c>
@@ -1602,17 +1707,17 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="4"/>
@@ -1622,7 +1727,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
@@ -1636,7 +1741,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
@@ -1650,7 +1755,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
@@ -1664,7 +1769,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
@@ -1678,7 +1783,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
@@ -1692,7 +1797,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
@@ -1706,7 +1811,7 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>0.80208333333332804</v>
       </c>
@@ -1719,40 +1824,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="C28:C31"/>
     <mergeCell ref="J24:J27"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="I24:I27"/>
@@ -1769,6 +1840,40 @@
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1782,12 +1887,12 @@
       <selection activeCell="B1" sqref="B1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -1807,7 +1912,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -1818,95 +1923,95 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
@@ -1920,7 +2025,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
@@ -1934,7 +2039,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
@@ -1948,37 +2053,37 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
@@ -1992,7 +2097,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
@@ -2006,7 +2111,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
@@ -2020,109 +2125,109 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
@@ -2136,7 +2241,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
@@ -2150,7 +2255,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
@@ -2164,141 +2269,141 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>0.718749999999999</v>
       </c>
@@ -2312,17 +2417,17 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="4"/>
@@ -2332,7 +2437,7 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
@@ -2346,7 +2451,7 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
@@ -2360,7 +2465,7 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
@@ -2374,7 +2479,7 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
@@ -2388,7 +2493,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
@@ -2402,7 +2507,7 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
@@ -2416,51 +2521,13 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>0.80208333333332804</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -2473,6 +2540,44 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2486,12 +2591,12 @@
       <selection activeCell="B3" sqref="B3:J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -2511,7 +2616,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -2522,102 +2627,102 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -2626,12 +2731,12 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -2640,12 +2745,12 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -2654,44 +2759,44 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2700,12 +2805,12 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -2714,12 +2819,12 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -2728,116 +2833,116 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -2846,12 +2951,12 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2860,12 +2965,12 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -2874,141 +2979,141 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>0.718749999999999</v>
       </c>
@@ -3022,17 +3127,17 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="4"/>
@@ -3042,12 +3147,12 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="11"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -3056,12 +3161,12 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="11"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3070,12 +3175,12 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="11"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3084,12 +3189,12 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="11"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3098,12 +3203,12 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="11"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3112,12 +3217,12 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="12"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3126,51 +3231,13 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>0.80208333333332804</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -3183,6 +3250,44 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3193,15 +3298,17 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J6"/>
+      <selection activeCell="C20" sqref="C20:C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="10" width="15.5703125" customWidth="1"/>
+    <col min="2" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -3221,7 +3328,7 @@
       <c r="I1" s="9"/>
       <c r="J1" s="9"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -3229,7 +3336,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
@@ -3245,7 +3352,7 @@
       <c r="I3" s="34"/>
       <c r="J3" s="34"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
@@ -3259,7 +3366,7 @@
       <c r="I4" s="34"/>
       <c r="J4" s="34"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
@@ -3273,7 +3380,7 @@
       <c r="I5" s="34"/>
       <c r="J5" s="34"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
@@ -3287,17 +3394,17 @@
       <c r="I6" s="34"/>
       <c r="J6" s="34"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="35" t="s">
@@ -3319,7 +3426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
@@ -3333,7 +3440,7 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
@@ -3347,7 +3454,7 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
@@ -3361,39 +3468,39 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
@@ -3407,7 +3514,7 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
@@ -3421,7 +3528,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
@@ -3435,111 +3542,111 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
@@ -3553,7 +3660,7 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
@@ -3567,7 +3674,7 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
@@ -3581,141 +3688,141 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>0.718749999999999</v>
       </c>
@@ -3729,17 +3836,17 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="2"/>
@@ -3749,12 +3856,12 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="11"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3763,12 +3870,12 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="11"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3777,12 +3884,12 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="11"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3791,12 +3898,12 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="11"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3805,12 +3912,12 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="11"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3819,12 +3926,12 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="12"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3833,51 +3940,13 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>0.80208333333332804</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -3890,6 +3959,44 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3897,21 +4004,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE242408-A213-49C5-A8C5-09FACDF545F8}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="40.35546875" customWidth="1"/>
+    <col min="8" max="8" width="64.92578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -3928,7 +4036,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -3936,376 +4044,401 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="72"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="73"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="78"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="45" t="s">
+      <c r="B7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="57" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="67" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="44"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="45" t="s">
+      <c r="B11" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="49"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="57" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="67" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="49"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="44"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="81"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="81"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="81"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="82"/>
+      <c r="C19" s="83"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="83"/>
+      <c r="H19" s="84"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="64"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="65"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="39"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="65"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="51"/>
       <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="52"/>
+      <c r="H23" s="66"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>0.718749999999999</v>
       </c>
@@ -4316,24 +4449,24 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
@@ -4344,7 +4477,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
@@ -4355,7 +4488,7 @@
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
@@ -4366,7 +4499,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
@@ -4377,7 +4510,7 @@
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
@@ -4388,7 +4521,7 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
@@ -4399,27 +4532,18 @@
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>0.80208333333332804</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="B15:G19"/>
-    <mergeCell ref="B20:D23"/>
-    <mergeCell ref="E20:G23"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E11:G12"/>
+  <mergeCells count="32">
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="B3:H6"/>
+    <mergeCell ref="B15:H19"/>
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="D33:D39"/>
@@ -4435,6 +4559,18 @@
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="E24:E27"/>
     <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B20:D23"/>
+    <mergeCell ref="E20:G23"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E11:G12"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E7:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4448,12 +4584,12 @@
       <selection activeCell="A39" sqref="A39:A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" s="6" t="s">
         <v>43</v>
       </c>
@@ -4463,120 +4599,120 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="57" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="62"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="57"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="62"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="57"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="62"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="57"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="60" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="65"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="60"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="65"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="60"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="65"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="60"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="65"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="60"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="65"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="60"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="65"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="60"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="65"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="60"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="61" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="67"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" s="62"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="67"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="62"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="67"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="62"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="68"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="63"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
@@ -4584,205 +4720,205 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="60" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="65"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="60"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="65"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="60"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="65"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="60"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="65"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="60"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="65"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="60"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="60" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="65"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="60"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="65"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="59" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="64"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="59"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="64"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="59"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="57" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="62"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="57"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="62"/>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="57"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="62"/>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="57"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="63"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="58"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="63"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="58"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>0.80208333333332804</v>
       </c>
-      <c r="B40" s="63"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="58"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>0.812499999999994</v>
       </c>
-      <c r="B41" s="63"/>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="58"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>0.82291666666665997</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>0.83333333333332604</v>
       </c>
-      <c r="B43" s="62"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="57"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>0.84374999999999201</v>
       </c>
-      <c r="B44" s="62"/>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="57"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>0.85416666666665797</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="59" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>0.86458333333332404</v>
       </c>
-      <c r="B46" s="64"/>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="59"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>0.87499999999999101</v>
       </c>
-      <c r="B47" s="64"/>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="59"/>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>0.88541666666665697</v>
       </c>
-      <c r="B48" s="64"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="59"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>0.89583333333332305</v>
       </c>
-      <c r="B49" s="64"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="59"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>0.90624999999998901</v>
       </c>
-      <c r="B50" s="64"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="59"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51" s="5">
         <v>0.91666666666665497</v>
       </c>
-      <c r="B51" s="64"/>
+      <c r="B51" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/input/harp-campA-time-table.xlsx
+++ b/input/harp-campA-time-table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Python\summer-camp-time-table\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5EAF39-992D-444C-85AF-E0CEC5379B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01676B29-4668-4B68-9472-664336B97E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6720" yWindow="1425" windowWidth="22050" windowHeight="13425" activeTab="4" xr2:uid="{E318233D-D99F-47E3-BC58-6A555949ADA4}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="53">
   <si>
     <t>Sivan MEGAN</t>
   </si>
@@ -193,12 +193,6 @@
     <t>Teacher</t>
   </si>
   <si>
-    <t>H2, H3, H4, H5, H6, H9 Observe MasterClass by Liya HUANG (Room Liya)</t>
-  </si>
-  <si>
-    <t>H1, H3, H5, H6, H7, H8 Observe MasterClass by Sivan MEGAN (Room Sivan)</t>
-  </si>
-  <si>
     <t>Harp MasterClass by Liya HUANG
 H1, H7, H8 
 (Room Liya)</t>
@@ -215,6 +209,18 @@
     <t>Harp MasterClass by Gwyneth WENTINK
 H3, H5, H6
 (Room GW)</t>
+  </si>
+  <si>
+    <t>H2, H3, H4, H5, H6, H9, H10, H11, H12 Observe MasterClass by Liya HUANG (Room Liya)</t>
+  </si>
+  <si>
+    <t>H3, H5, H6, H10, H11, H12 Observe MasterClass by Liya HUANG (Room Liya)</t>
+  </si>
+  <si>
+    <t>H1, H3, H5, H6, H7, H8,H10, H11, H12 Observe MasterClass by Sivan MEGAN (Room Sivan)</t>
+  </si>
+  <si>
+    <t>H1, H7, H8,H10, H11, H12 Observe MasterClass by Sivan MEGAN (Room Sivan)</t>
   </si>
 </sst>
 </file>
@@ -293,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -491,17 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
@@ -522,9 +517,49 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
@@ -536,7 +571,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -555,14 +590,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -599,16 +646,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -617,94 +658,73 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -725,6 +745,71 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,89 +1191,89 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1238,31 +1323,31 @@
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1312,103 +1397,103 @@
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1458,27 +1543,27 @@
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -1487,7 +1572,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1501,7 +1586,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1515,7 +1600,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -1526,34 +1611,34 @@
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -1564,10 +1649,10 @@
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -1578,10 +1663,10 @@
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -1606,13 +1691,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="4"/>
@@ -1719,40 +1804,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="C28:C31"/>
     <mergeCell ref="J24:J27"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="I24:I27"/>
@@ -1769,6 +1820,40 @@
     <mergeCell ref="I11:I14"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1822,87 +1907,87 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29" t="s">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1952,29 +2037,29 @@
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="13"/>
+      <c r="J11" s="13" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2024,101 +2109,101 @@
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2168,27 +2253,27 @@
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -2197,7 +2282,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2211,7 +2296,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2225,7 +2310,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -2236,34 +2321,34 @@
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2274,10 +2359,10 @@
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -2288,10 +2373,10 @@
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -2316,13 +2401,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="4"/>
@@ -2423,44 +2508,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -2473,6 +2520,44 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2526,89 +2611,89 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="29" t="s">
+      <c r="D7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2616,8 +2701,8 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
@@ -2630,8 +2715,8 @@
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="11"/>
@@ -2644,8 +2729,8 @@
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -2658,31 +2743,31 @@
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2690,8 +2775,8 @@
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
@@ -2704,8 +2789,8 @@
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
@@ -2718,8 +2803,8 @@
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -2732,103 +2817,103 @@
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2836,8 +2921,8 @@
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
@@ -2850,8 +2935,8 @@
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -2864,8 +2949,8 @@
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -2878,27 +2963,27 @@
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -2907,7 +2992,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2921,7 +3006,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2935,7 +3020,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -2946,34 +3031,34 @@
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2984,10 +3069,10 @@
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -2998,10 +3083,10 @@
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -3026,13 +3111,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="4"/>
@@ -3046,8 +3131,8 @@
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="11"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -3060,8 +3145,8 @@
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="11"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -3074,8 +3159,8 @@
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="11"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -3088,8 +3173,8 @@
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="11"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -3102,8 +3187,8 @@
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="11"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -3116,8 +3201,8 @@
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="12"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -3133,44 +3218,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -3183,6 +3230,44 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3291,13 +3376,13 @@
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="30" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="35" t="s">
@@ -3365,31 +3450,31 @@
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="C11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3439,103 +3524,103 @@
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3585,27 +3670,27 @@
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="28" t="s">
+      <c r="E24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
@@ -3614,7 +3699,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -3628,7 +3713,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -3642,7 +3727,7 @@
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
       <c r="H27" s="12"/>
@@ -3653,34 +3738,34 @@
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -3691,10 +3776,10 @@
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -3705,10 +3790,10 @@
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="15"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12"/>
@@ -3733,13 +3818,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="2"/>
@@ -3753,8 +3838,8 @@
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
       <c r="D34" s="11"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3767,8 +3852,8 @@
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="11"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3781,8 +3866,8 @@
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="11"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -3795,8 +3880,8 @@
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
       <c r="D37" s="11"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3809,8 +3894,8 @@
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="11"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3823,8 +3908,8 @@
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="12"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -3840,44 +3925,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -3890,6 +3937,44 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3897,10 +3982,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE242408-A213-49C5-A8C5-09FACDF545F8}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3908,10 +3993,11 @@
     <col min="2" max="3" width="15.5703125" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" customWidth="1"/>
+    <col min="7" max="7" width="57" customWidth="1"/>
+    <col min="8" max="8" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -3928,7 +4014,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>23</v>
       </c>
@@ -3936,376 +4022,409 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="66"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40"/>
-      <c r="E7" s="45" t="s">
+      <c r="B7" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="72"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="39"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="73"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="57" t="s">
+      <c r="B9" s="39"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="40" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="39"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="69"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="45" t="s">
+      <c r="B11" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="72"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="39"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="73"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="57" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="40" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="68" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="69"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="75"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="75"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="75"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="37"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="68"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="50"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="39"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="81"/>
+      <c r="H21" s="74"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="50"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="39"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="81"/>
+      <c r="H22" s="74"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="44"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="51"/>
       <c r="F23" s="52"/>
-      <c r="G23" s="53"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G23" s="52"/>
+      <c r="H23" s="69"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="36" t="s">
+      <c r="E24" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="82" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="70"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="14"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G25" s="83"/>
+      <c r="H25" s="85"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="83"/>
+      <c r="H26" s="85"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
-      <c r="E27" s="15"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="84"/>
+      <c r="H27" s="71"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="27" t="s">
+      <c r="B28" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="28" t="s">
+      <c r="E28" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="10"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" s="86"/>
+      <c r="H28" s="68"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="18"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G29" s="83"/>
+      <c r="H29" s="74"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G30" s="83"/>
+      <c r="H30" s="74"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
-      <c r="E31" s="15"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G31" s="84"/>
+      <c r="H31" s="69"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>0.718749999999999</v>
       </c>
@@ -4320,13 +4439,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="26" t="s">
+      <c r="D33" s="14" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="4"/>
@@ -4405,21 +4524,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B3:G6"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="B15:G19"/>
-    <mergeCell ref="B20:D23"/>
-    <mergeCell ref="E20:G23"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E11:G12"/>
+  <mergeCells count="33">
+    <mergeCell ref="B15:H19"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="B3:H6"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="E7:H8"/>
+    <mergeCell ref="E11:H12"/>
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="D33:D39"/>
@@ -4435,6 +4548,16 @@
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="E24:E27"/>
     <mergeCell ref="F24:F27"/>
+    <mergeCell ref="B20:D23"/>
+    <mergeCell ref="E20:G23"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4472,7 +4595,7 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="57" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4480,25 +4603,25 @@
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="62"/>
+      <c r="B4" s="57"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="62"/>
+      <c r="B5" s="57"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="62"/>
+      <c r="B6" s="57"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="60" t="s">
         <v>34</v>
       </c>
     </row>
@@ -4506,49 +4629,49 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="60"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="60"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="60"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="60"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="60"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="60"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="60"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="66" t="s">
+      <c r="B15" s="61" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4556,25 +4679,25 @@
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="62"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="67"/>
+      <c r="B17" s="62"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="67"/>
+      <c r="B18" s="62"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="68"/>
+      <c r="B19" s="63"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
@@ -4588,7 +4711,7 @@
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="60" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4596,37 +4719,37 @@
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="65"/>
+      <c r="B22" s="60"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="65"/>
+      <c r="B23" s="60"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="65"/>
+      <c r="B24" s="60"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="65"/>
+      <c r="B25" s="60"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="65"/>
+      <c r="B26" s="60"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="60" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4634,19 +4757,19 @@
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="65"/>
+      <c r="B28" s="60"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="65"/>
+      <c r="B29" s="60"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="59" t="s">
         <v>39</v>
       </c>
     </row>
@@ -4654,19 +4777,19 @@
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="64"/>
+      <c r="B31" s="59"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>0.718749999999999</v>
       </c>
-      <c r="B32" s="64"/>
+      <c r="B32" s="59"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="57" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4674,25 +4797,25 @@
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="62"/>
+      <c r="B34" s="57"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="62"/>
+      <c r="B35" s="57"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="62"/>
+      <c r="B36" s="57"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="63" t="s">
+      <c r="B37" s="58" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4700,31 +4823,31 @@
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="58"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="63"/>
+      <c r="B39" s="58"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>0.80208333333332804</v>
       </c>
-      <c r="B40" s="63"/>
+      <c r="B40" s="58"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>0.812499999999994</v>
       </c>
-      <c r="B41" s="63"/>
+      <c r="B41" s="58"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>0.82291666666665997</v>
       </c>
-      <c r="B42" s="62" t="s">
+      <c r="B42" s="57" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4732,19 +4855,19 @@
       <c r="A43" s="5">
         <v>0.83333333333332604</v>
       </c>
-      <c r="B43" s="62"/>
+      <c r="B43" s="57"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>0.84374999999999201</v>
       </c>
-      <c r="B44" s="62"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>0.85416666666665797</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="59" t="s">
         <v>42</v>
       </c>
     </row>
@@ -4752,37 +4875,37 @@
       <c r="A46" s="5">
         <v>0.86458333333332404</v>
       </c>
-      <c r="B46" s="64"/>
+      <c r="B46" s="59"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>0.87499999999999101</v>
       </c>
-      <c r="B47" s="64"/>
+      <c r="B47" s="59"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>0.88541666666665697</v>
       </c>
-      <c r="B48" s="64"/>
+      <c r="B48" s="59"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>0.89583333333332305</v>
       </c>
-      <c r="B49" s="64"/>
+      <c r="B49" s="59"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>0.90624999999998901</v>
       </c>
-      <c r="B50" s="64"/>
+      <c r="B50" s="59"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>0.91666666666665497</v>
       </c>
-      <c r="B51" s="64"/>
+      <c r="B51" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/input/harp-campA-time-table.xlsx
+++ b/input/harp-campA-time-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapmi\Desktop\summer-camp-time-table\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB98613-15C6-404E-A01C-E3365E406C12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A228C-F75D-49B0-9150-9899047401A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1508" windowWidth="18975" windowHeight="11272" activeTab="5" xr2:uid="{E318233D-D99F-47E3-BC58-6A555949ADA4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{E318233D-D99F-47E3-BC58-6A555949ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="49">
   <si>
     <t>Sivan MEGAN</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Break</t>
   </si>
   <si>
-    <t>Group 2, 5, 8, 9 Acting Class (Room Acting Class)</t>
-  </si>
-  <si>
     <t>Group 6
 (Room Ivy)</t>
   </si>
@@ -109,9 +106,6 @@
     <t>Group 8</t>
   </si>
   <si>
-    <t>Group 1, 3, 4, 6, 7 Acting Class (Room Acting Class)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Faculty Rehearsal </t>
   </si>
   <si>
@@ -139,14 +133,6 @@
   <si>
     <t>Briefing for Saturday
 (Room zzz)</t>
-  </si>
-  <si>
-    <t>Group 2, 5, 8, 9 Group Activity
-(Room Group Activity)</t>
-  </si>
-  <si>
-    <t>Group 1, 3, 4, 6, 7 Group Activity
-(Room Group Activity)</t>
   </si>
   <si>
     <t>Check in Maritime Museum
@@ -202,16 +188,22 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Harp MasterClass by Liya HUANG**
-H1, H7. H8</t>
-  </si>
-  <si>
     <t>Harp MasterClass by Sivan MEGAN**
 H2, H4, H9</t>
   </si>
   <si>
     <t>Harp MasterClass by Gwyneth WENTINK**
 H3, H5, H6</t>
+  </si>
+  <si>
+    <t>Group 2, 5, 7, 9 Acting Class (Room Acting Class)</t>
+  </si>
+  <si>
+    <t>Group 1, 3, 4, 6, 8 Acting Class (Room Acting Class)</t>
+  </si>
+  <si>
+    <t>Harp MasterClass by Liya HUANG**
+H1, H7, H8</t>
   </si>
 </sst>
 </file>
@@ -440,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -533,32 +525,26 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -907,7 +893,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="E24" sqref="E24:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -917,7 +903,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -937,7 +923,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1309,19 +1295,19 @@
         <v>14</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="25" t="s">
         <v>17</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>18</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -1377,16 +1363,16 @@
         <v>16</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1454,13 +1440,13 @@
         <v>0.72916666666666496</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -1626,7 +1612,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="E24" sqref="E24:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1636,7 +1622,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1656,7 +1642,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1673,7 +1659,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -1733,7 +1719,9 @@
       <c r="B7" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>16</v>
+      </c>
       <c r="D7" s="24" t="s">
         <v>8</v>
       </c>
@@ -2014,7 +2002,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
@@ -2022,19 +2010,19 @@
         <v>14</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="25" t="s">
         <v>17</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>18</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -2082,7 +2070,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
@@ -2090,16 +2078,16 @@
         <v>16</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -2167,13 +2155,13 @@
         <v>0.72916666666666496</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2333,7 +2321,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="E24" sqref="E24:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2343,7 +2331,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -2363,7 +2351,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2380,7 +2368,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
@@ -2456,7 +2444,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>9</v>
@@ -2530,7 +2518,7 @@
         <v>10</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I11" s="10" t="s">
         <v>9</v>
@@ -2727,7 +2715,7 @@
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
@@ -2735,19 +2723,19 @@
         <v>14</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="25" t="s">
         <v>17</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>18</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -2795,7 +2783,7 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
@@ -2803,16 +2791,16 @@
         <v>16</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -2880,13 +2868,13 @@
         <v>0.72916666666666496</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -3046,7 +3034,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScale="103" workbookViewId="0">
-      <selection sqref="A1:D2"/>
+      <selection activeCell="E24" sqref="E24:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3056,7 +3044,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -3076,7 +3064,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -3086,7 +3074,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -3441,19 +3429,19 @@
         <v>14</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D24" s="28" t="s">
         <v>16</v>
       </c>
       <c r="E24" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="25" t="s">
         <v>17</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>18</v>
       </c>
       <c r="H24" s="10"/>
       <c r="I24" s="10"/>
@@ -3509,16 +3497,16 @@
         <v>16</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -3586,13 +3574,13 @@
         <v>0.72916666666666496</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -3751,8 +3739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE242408-A213-49C5-A8C5-09FACDF545F8}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3764,7 +3752,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -3781,7 +3769,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -3792,7 +3780,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -3841,27 +3829,27 @@
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="38" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="38"/>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
@@ -3871,9 +3859,9 @@
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="38" t="s">
         <v>7</v>
       </c>
@@ -3889,39 +3877,39 @@
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
       <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
+      <c r="B11" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="38" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F11" s="38"/>
       <c r="G11" s="38"/>
       <c r="H11" s="38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="38"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
@@ -3931,9 +3919,9 @@
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="38" t="s">
         <v>10</v>
       </c>
@@ -3949,85 +3937,85 @@
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
       <c r="H14" s="38"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
+      <c r="B20" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="38"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
@@ -4037,59 +4025,59 @@
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+    </row>
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="42" t="s">
+      <c r="C24" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>18</v>
+      <c r="E24" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="36" t="s">
+        <v>17</v>
       </c>
       <c r="H24" s="38"/>
     </row>
@@ -4097,56 +4085,56 @@
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="40" t="s">
-        <v>25</v>
+      <c r="C28" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>23</v>
       </c>
       <c r="G28" s="38"/>
       <c r="H28" s="38"/>
@@ -4155,37 +4143,37 @@
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="41"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="41"/>
-      <c r="C31" s="39"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="39"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
@@ -4203,13 +4191,13 @@
         <v>0.72916666666666496</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -4295,6 +4283,11 @@
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="E24:E27"/>
     <mergeCell ref="F24:F27"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="B20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
     <mergeCell ref="B3:H6"/>
     <mergeCell ref="B15:H19"/>
     <mergeCell ref="B7:D10"/>
@@ -4307,11 +4300,6 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="E11:G12"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="B20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="D33:D39"/>
@@ -4333,7 +4321,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46B8B14-C1FC-4368-9C36-E38F728D68D9}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4344,41 +4332,41 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>32</v>
+      <c r="B2" s="42" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B3" s="45"/>
+      <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="42"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.45833333333333298</v>
       </c>
       <c r="B6" s="43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
@@ -4427,40 +4415,40 @@
       <c r="A14" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="46" t="s">
-        <v>34</v>
+      <c r="B14" s="44" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="45"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="45"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="45"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="48"/>
+      <c r="B18" s="46"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.59375</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
@@ -4468,7 +4456,7 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
@@ -4506,7 +4494,7 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
@@ -4525,27 +4513,27 @@
       <c r="A29" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B29" s="40" t="s">
-        <v>38</v>
+      <c r="B29" s="36" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B30" s="40"/>
+      <c r="B30" s="36"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.718749999999999</v>
       </c>
-      <c r="B31" s="40"/>
+      <c r="B31" s="36"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="42" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4553,115 +4541,115 @@
       <c r="A33" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B33" s="45"/>
+      <c r="B33" s="42"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B34" s="45"/>
+      <c r="B34" s="42"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B35" s="45"/>
+      <c r="B35" s="42"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B36" s="36" t="s">
-        <v>39</v>
+      <c r="B36" s="40" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B37" s="36"/>
+      <c r="B37" s="40"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B38" s="36"/>
+      <c r="B38" s="40"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>0.80208333333332804</v>
       </c>
-      <c r="B39" s="36"/>
+      <c r="B39" s="40"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>0.812499999999994</v>
       </c>
-      <c r="B40" s="36"/>
+      <c r="B40" s="40"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>0.82291666666665997</v>
       </c>
-      <c r="B41" s="45" t="s">
-        <v>40</v>
+      <c r="B41" s="42" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>0.83333333333332604</v>
       </c>
-      <c r="B42" s="45"/>
+      <c r="B42" s="42"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>0.84374999999999201</v>
       </c>
-      <c r="B43" s="45"/>
+      <c r="B43" s="42"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>0.85416666666665797</v>
       </c>
-      <c r="B44" s="40" t="s">
-        <v>41</v>
+      <c r="B44" s="36" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>0.86458333333332404</v>
       </c>
-      <c r="B45" s="40"/>
+      <c r="B45" s="36"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>0.87499999999999101</v>
       </c>
-      <c r="B46" s="40"/>
+      <c r="B46" s="36"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>0.88541666666665697</v>
       </c>
-      <c r="B47" s="40"/>
+      <c r="B47" s="36"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>0.89583333333332305</v>
       </c>
-      <c r="B48" s="40"/>
+      <c r="B48" s="36"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>0.90624999999998901</v>
       </c>
-      <c r="B49" s="40"/>
+      <c r="B49" s="36"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>0.91666666666665497</v>
       </c>
-      <c r="B50" s="40"/>
+      <c r="B50" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/input/harp-campA-time-table.xlsx
+++ b/input/harp-campA-time-table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lapmi\Desktop\summer-camp-time-table\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4A228C-F75D-49B0-9150-9899047401A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D78F70-F609-4EA5-AB09-EDA6A23158EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="4" xr2:uid="{E318233D-D99F-47E3-BC58-6A555949ADA4}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13875" activeTab="4" xr2:uid="{E318233D-D99F-47E3-BC58-6A555949ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="51">
   <si>
     <t>Sivan MEGAN</t>
   </si>
@@ -127,10 +127,6 @@
     <t xml:space="preserve">H5 </t>
   </si>
   <si>
-    <t>Harp Regulation Class
-(Room Acting Room)</t>
-  </si>
-  <si>
     <t>Briefing for Saturday
 (Room zzz)</t>
   </si>
@@ -188,6 +184,10 @@
     <t>Time</t>
   </si>
   <si>
+    <t>Harp MasterClass by Liya HUANG**
+H1, H7. H8</t>
+  </si>
+  <si>
     <t>Harp MasterClass by Sivan MEGAN**
 H2, H4, H9</t>
   </si>
@@ -202,8 +202,16 @@
     <t>Group 1, 3, 4, 6, 8 Acting Class (Room Acting Class)</t>
   </si>
   <si>
-    <t>Harp MasterClass by Liya HUANG**
-H1, H7, H8</t>
+    <t>Harp Regulation Workshop
+(Room241)</t>
+  </si>
+  <si>
+    <t>Group 2, 5, 7, 9 Group Activity
+(Room Group Activity)</t>
+  </si>
+  <si>
+    <t>Group 1, 3, 4, 6, 8 Group Activity
+(Room Group Activity)</t>
   </si>
 </sst>
 </file>
@@ -282,41 +290,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -354,17 +333,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -432,128 +400,104 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -892,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AA8994-A59C-4360-A90B-0092B13CE7C1}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E31"/>
+    <sheetView zoomScale="73" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -903,7 +847,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -923,7 +867,7 @@
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -939,71 +883,71 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -1057,27 +1001,27 @@
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1131,79 +1075,79 @@
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -1226,22 +1170,22 @@
       <c r="D20" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1249,177 +1193,177 @@
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
@@ -1439,13 +1383,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="4"/>
@@ -1459,9 +1403,9 @@
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1473,9 +1417,9 @@
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1487,9 +1431,9 @@
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1501,9 +1445,9 @@
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1515,9 +1459,9 @@
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1529,9 +1473,9 @@
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1552,19 +1496,27 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
     <mergeCell ref="J24:J27"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="I24:I27"/>
@@ -1581,27 +1533,19 @@
     <mergeCell ref="F24:F27"/>
     <mergeCell ref="C28:C31"/>
     <mergeCell ref="H28:H31"/>
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1611,8 +1555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116A65B0-7DAB-484E-AF35-6FA659C3D3C8}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E31"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1622,7 +1566,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -1642,7 +1586,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1658,71 +1602,71 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="10" t="s">
@@ -1776,27 +1720,27 @@
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="12" t="s">
         <v>11</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1848,79 +1792,79 @@
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -1934,13 +1878,13 @@
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E20" s="10" t="s">
@@ -1992,36 +1936,36 @@
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="26" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="10"/>
@@ -2035,7 +1979,7 @@
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
-      <c r="E25" s="26"/>
+      <c r="E25" s="29"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -2049,7 +1993,7 @@
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="26"/>
+      <c r="E26" s="29"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -2060,33 +2004,33 @@
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="26" t="s">
         <v>23</v>
       </c>
       <c r="G28" s="10"/>
@@ -2098,10 +2042,10 @@
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="26"/>
+      <c r="B29" s="29"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="26"/>
+      <c r="E29" s="29"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -2112,10 +2056,10 @@
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="26"/>
+      <c r="B30" s="29"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="26"/>
+      <c r="E30" s="29"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -2126,15 +2070,15 @@
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
@@ -2154,13 +2098,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="4"/>
@@ -2174,9 +2118,9 @@
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2188,9 +2132,9 @@
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2202,9 +2146,9 @@
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2216,9 +2160,9 @@
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2230,9 +2174,9 @@
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2244,9 +2188,9 @@
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2261,44 +2205,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -2311,669 +2217,34 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD9C713-98B7-4375-8CEF-16D9E327A4AA}">
-  <dimension ref="A1:J40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="10" width="15.640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <v>0.44791666666666702</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <v>0.46875</v>
-      </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <v>0.48958333333333298</v>
-      </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <v>0.51041666666666696</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <v>0.53125</v>
-      </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <v>0.55208333333333304</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <v>0.59375</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
-        <v>0.63541666666666696</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B28" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
-        <v>0.69791666666666696</v>
-      </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
-        <v>0.718749999999999</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="5">
-        <v>0.72916666666666496</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="5">
-        <v>0.73958333333333104</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="5">
-        <v>0.749999999999997</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="5">
-        <v>0.76041666666666297</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="5">
-        <v>0.77083333333332904</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="5">
-        <v>0.781249999999996</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
-        <v>0.79166666666666197</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="5">
-        <v>0.80208333333332804</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="50">
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
     <mergeCell ref="B3:J6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
@@ -2984,34 +2255,669 @@
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD9C713-98B7-4375-8CEF-16D9E327A4AA}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView zoomScale="50" workbookViewId="0">
+      <selection activeCell="AA64" sqref="AA64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="10" width="15.640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <v>0.718749999999999</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="5">
+        <v>0.72916666666666496</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" s="5">
+        <v>0.73958333333333104</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="5">
+        <v>0.749999999999997</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
+        <v>0.76041666666666297</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" s="5">
+        <v>0.77083333333332904</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
+        <v>0.781249999999996</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="5">
+        <v>0.79166666666666197</v>
+      </c>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="5">
+        <v>0.80208333333332804</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -3024,6 +2930,44 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3034,7 +2978,7 @@
   <dimension ref="A1:J40"/>
   <sheetViews>
     <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E31"/>
+      <selection activeCell="B15" sqref="B15:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3044,7 +2988,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -3073,89 +3017,89 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="35" t="s">
+      <c r="J7" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3163,73 +3107,73 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3237,107 +3181,107 @@
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="23"/>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
@@ -3360,22 +3304,22 @@
       <c r="D20" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="10" t="s">
+      <c r="F20" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G20" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3383,177 +3327,177 @@
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="29" t="s">
+      <c r="E28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
@@ -3573,13 +3517,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="2"/>
@@ -3593,9 +3537,9 @@
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3607,9 +3551,9 @@
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3621,9 +3565,9 @@
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3635,9 +3579,9 @@
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3649,9 +3593,9 @@
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -3663,9 +3607,9 @@
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="12"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3680,44 +3624,6 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -3730,6 +3636,44 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3740,7 +3684,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D10"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3752,7 +3696,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>0</v>
@@ -3779,401 +3723,401 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="B3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38" t="s">
-        <v>40</v>
+      <c r="B7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="38" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="38"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="38"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38" t="s">
-        <v>41</v>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="38" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="38"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="38"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="39" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
-      <c r="H18" s="39"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="41"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="36" t="s">
+      <c r="E24" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="38"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="36" t="s">
+      <c r="E28" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="26"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
@@ -4190,13 +4134,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="4"/>
@@ -4207,9 +4151,9 @@
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4218,9 +4162,9 @@
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -4229,9 +4173,9 @@
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -4240,9 +4184,9 @@
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -4251,9 +4195,9 @@
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -4262,9 +4206,9 @@
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
+      <c r="B39" s="15"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -4276,6 +4220,30 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="B3:H6"/>
+    <mergeCell ref="B15:H19"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E11:G12"/>
     <mergeCell ref="H28:H31"/>
     <mergeCell ref="H24:H27"/>
     <mergeCell ref="H7:H10"/>
@@ -4288,30 +4256,6 @@
     <mergeCell ref="E20:E23"/>
     <mergeCell ref="F20:F23"/>
     <mergeCell ref="G20:G23"/>
-    <mergeCell ref="B3:H6"/>
-    <mergeCell ref="B15:H19"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E11:G12"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4339,201 +4283,201 @@
       <c r="A2" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>28</v>
+      <c r="B2" s="35" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="35"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B4" s="42"/>
+      <c r="B4" s="35"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="35"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>29</v>
+      <c r="B6" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B8" s="43"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B9" s="43"/>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.5</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="44" t="s">
-        <v>30</v>
+      <c r="B14" s="36" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="37"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="37"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="37"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="38"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.59375</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B20" s="43" t="s">
-        <v>32</v>
+      <c r="B20" s="28" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B21" s="43"/>
+      <c r="B21" s="28"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.625</v>
       </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B23" s="43"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B24" s="43"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B25" s="43"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>33</v>
+      <c r="B26" s="28" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B27" s="43"/>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B28" s="43"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B29" s="36" t="s">
-        <v>34</v>
+      <c r="B29" s="26" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B30" s="36"/>
+      <c r="B30" s="26"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.718749999999999</v>
       </c>
-      <c r="B31" s="36"/>
+      <c r="B31" s="26"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="35" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4541,115 +4485,115 @@
       <c r="A33" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B33" s="42"/>
+      <c r="B33" s="35"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B34" s="42"/>
+      <c r="B34" s="35"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B35" s="42"/>
+      <c r="B35" s="35"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B36" s="40" t="s">
-        <v>35</v>
+      <c r="B36" s="34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B37" s="40"/>
+      <c r="B37" s="34"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B38" s="40"/>
+      <c r="B38" s="34"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" s="5">
         <v>0.80208333333332804</v>
       </c>
-      <c r="B39" s="40"/>
+      <c r="B39" s="34"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" s="5">
         <v>0.812499999999994</v>
       </c>
-      <c r="B40" s="40"/>
+      <c r="B40" s="34"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" s="5">
         <v>0.82291666666665997</v>
       </c>
-      <c r="B41" s="42" t="s">
-        <v>36</v>
+      <c r="B41" s="35" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" s="5">
         <v>0.83333333333332604</v>
       </c>
-      <c r="B42" s="42"/>
+      <c r="B42" s="35"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>0.84374999999999201</v>
       </c>
-      <c r="B43" s="42"/>
+      <c r="B43" s="35"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="5">
         <v>0.85416666666665797</v>
       </c>
-      <c r="B44" s="36" t="s">
-        <v>37</v>
+      <c r="B44" s="26" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" s="5">
         <v>0.86458333333332404</v>
       </c>
-      <c r="B45" s="36"/>
+      <c r="B45" s="26"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" s="5">
         <v>0.87499999999999101</v>
       </c>
-      <c r="B46" s="36"/>
+      <c r="B46" s="26"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" s="5">
         <v>0.88541666666665697</v>
       </c>
-      <c r="B47" s="36"/>
+      <c r="B47" s="26"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" s="5">
         <v>0.89583333333332305</v>
       </c>
-      <c r="B48" s="36"/>
+      <c r="B48" s="26"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49" s="5">
         <v>0.90624999999998901</v>
       </c>
-      <c r="B49" s="36"/>
+      <c r="B49" s="26"/>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50" s="5">
         <v>0.91666666666665497</v>
       </c>
-      <c r="B50" s="36"/>
+      <c r="B50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/input/harp-campA-time-table.xlsx
+++ b/input/harp-campA-time-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D78F70-F609-4EA5-AB09-EDA6A23158EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CF1217-48C1-4B79-B8DE-B56623E4F352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13875" activeTab="4" xr2:uid="{E318233D-D99F-47E3-BC58-6A555949ADA4}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13875" activeTab="2" xr2:uid="{E318233D-D99F-47E3-BC58-6A555949ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="52">
   <si>
     <t>Sivan MEGAN</t>
   </si>
@@ -184,10 +184,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Harp MasterClass by Liya HUANG**
-H1, H7. H8</t>
-  </si>
-  <si>
     <t>Harp MasterClass by Sivan MEGAN**
 H2, H4, H9</t>
   </si>
@@ -202,16 +198,24 @@
     <t>Group 1, 3, 4, 6, 8 Acting Class (Room Acting Class)</t>
   </si>
   <si>
-    <t>Harp Regulation Workshop
-(Room241)</t>
-  </si>
-  <si>
     <t>Group 2, 5, 7, 9 Group Activity
 (Room Group Activity)</t>
   </si>
   <si>
     <t>Group 1, 3, 4, 6, 8 Group Activity
 (Room Group Activity)</t>
+  </si>
+  <si>
+    <t>H1, H2, H4, H7, H8, H9 Harp MasterClass by Gwyneth WENTINK 
+(Room Gwyneth)</t>
+  </si>
+  <si>
+    <t>Harp MasterClass by Liya HUANG**
+H1, H7, H8</t>
+  </si>
+  <si>
+    <t>Harp Regulation Workshop
+(Room 241)</t>
   </si>
 </sst>
 </file>
@@ -290,7 +294,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -396,11 +400,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -419,19 +432,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -449,20 +474,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -470,8 +486,11 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,14 +498,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -883,89 +905,89 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="15" t="s">
         <v>12</v>
       </c>
     </row>
@@ -973,73 +995,73 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1047,145 +1069,145 @@
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="18" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1193,177 +1215,177 @@
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="17" t="s">
+      <c r="E24" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="17" t="s">
+      <c r="E28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
@@ -1383,13 +1405,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="4"/>
@@ -1403,9 +1425,9 @@
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1417,9 +1439,9 @@
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1431,9 +1453,9 @@
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1445,9 +1467,9 @@
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1459,9 +1481,9 @@
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1473,9 +1495,9 @@
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -1496,11 +1518,35 @@
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="D28:D31"/>
+    <mergeCell ref="E28:E31"/>
+    <mergeCell ref="F28:F31"/>
+    <mergeCell ref="G28:G31"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="C28:C31"/>
+    <mergeCell ref="H28:H31"/>
     <mergeCell ref="B3:J6"/>
     <mergeCell ref="J7:J10"/>
     <mergeCell ref="J11:J14"/>
@@ -1517,35 +1563,11 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="D11:D14"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="J28:J31"/>
+    <mergeCell ref="D33:D39"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="C33:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1602,89 +1624,89 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1692,71 +1714,71 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1764,143 +1786,143 @@
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10" t="s">
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="10" t="s">
+      <c r="I20" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="10" t="s">
+      <c r="J20" s="15" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1908,59 +1930,59 @@
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="28" t="s">
-        <v>46</v>
+      <c r="E24" s="29" t="s">
+        <v>45</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>22</v>
@@ -1968,51 +1990,51 @@
       <c r="G24" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
@@ -2021,64 +2043,64 @@
       <c r="B28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="27" t="s">
+      <c r="D28" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="28" t="s">
-        <v>47</v>
+      <c r="E28" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="F28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
@@ -2098,13 +2120,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="4"/>
@@ -2118,9 +2140,9 @@
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2132,9 +2154,9 @@
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2146,9 +2168,9 @@
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2160,9 +2182,9 @@
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2174,9 +2196,9 @@
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2188,9 +2210,9 @@
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -2205,6 +2227,44 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -2217,24 +2277,679 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD9C713-98B7-4375-8CEF-16D9E327A4AA}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="10" width="15.640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="5">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="5">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="5">
+        <v>0.4375</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="5">
+        <v>0.44791666666666702</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7" s="5">
+        <v>0.45833333333333298</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8" s="5">
+        <v>0.46875</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9" s="5">
+        <v>0.47916666666666702</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10" s="5">
+        <v>0.48958333333333298</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12" s="5">
+        <v>0.51041666666666696</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13" s="5">
+        <v>0.52083333333333304</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14" s="5">
+        <v>0.53125</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15" s="5">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" s="5">
+        <v>0.55208333333333304</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="5">
+        <v>0.5625</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="5">
+        <v>0.57291666666666696</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="5">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="5">
+        <v>0.59375</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="5">
+        <v>0.60416666666666696</v>
+      </c>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="5">
+        <v>0.61458333333333304</v>
+      </c>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A23" s="5">
+        <v>0.625</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="5">
+        <v>0.63541666666666696</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A25" s="5">
+        <v>0.64583333333333304</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A26" s="5">
+        <v>0.65625</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A27" s="5">
+        <v>0.66666666666666696</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="5">
+        <v>0.67708333333333304</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A29" s="5">
+        <v>0.6875</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A30" s="5">
+        <v>0.69791666666666696</v>
+      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A31" s="5">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="B31" s="23"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A32" s="5">
+        <v>0.718749999999999</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A33" s="5">
+        <v>0.72916666666666496</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A34" s="5">
+        <v>0.73958333333333104</v>
+      </c>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A35" s="5">
+        <v>0.749999999999997</v>
+      </c>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A36" s="5">
+        <v>0.76041666666666297</v>
+      </c>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A37" s="5">
+        <v>0.77083333333332904</v>
+      </c>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A38" s="5">
+        <v>0.781249999999996</v>
+      </c>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A39" s="5">
+        <v>0.79166666666666197</v>
+      </c>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A40" s="5">
+        <v>0.80208333333332804</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
     <mergeCell ref="G11:G14"/>
     <mergeCell ref="H11:H14"/>
     <mergeCell ref="I11:I14"/>
@@ -2245,679 +2960,24 @@
     <mergeCell ref="D11:D14"/>
     <mergeCell ref="E11:E14"/>
     <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD9C713-98B7-4375-8CEF-16D9E327A4AA}">
-  <dimension ref="A1:J40"/>
-  <sheetViews>
-    <sheetView zoomScale="50" workbookViewId="0">
-      <selection activeCell="AA64" sqref="AA64"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="2" max="10" width="15.640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="5">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="5">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A5" s="5">
-        <v>0.4375</v>
-      </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A6" s="5">
-        <v>0.44791666666666702</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A7" s="5">
-        <v>0.45833333333333298</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A8" s="5">
-        <v>0.46875</v>
-      </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A9" s="5">
-        <v>0.47916666666666702</v>
-      </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A10" s="5">
-        <v>0.48958333333333298</v>
-      </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A11" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A12" s="5">
-        <v>0.51041666666666696</v>
-      </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A13" s="5">
-        <v>0.52083333333333304</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A14" s="5">
-        <v>0.53125</v>
-      </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A15" s="5">
-        <v>0.54166666666666696</v>
-      </c>
-      <c r="B15" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A16" s="5">
-        <v>0.55208333333333304</v>
-      </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A17" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A18" s="5">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A19" s="5">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A20" s="5">
-        <v>0.59375</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A21" s="5">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A22" s="5">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A23" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="5">
-        <v>0.63541666666666696</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A25" s="5">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A26" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A27" s="5">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="5">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A29" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A30" s="5">
-        <v>0.69791666666666696</v>
-      </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A31" s="5">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A32" s="5">
-        <v>0.718749999999999</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A33" s="5">
-        <v>0.72916666666666496</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A34" s="5">
-        <v>0.73958333333333104</v>
-      </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A35" s="5">
-        <v>0.749999999999997</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A36" s="5">
-        <v>0.76041666666666297</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A37" s="5">
-        <v>0.77083333333332904</v>
-      </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A38" s="5">
-        <v>0.781249999999996</v>
-      </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
-        <v>0.79166666666666197</v>
-      </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="5">
-        <v>0.80208333333332804</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="50">
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -2930,44 +2990,6 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3017,89 +3039,89 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3107,73 +3129,73 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="16" t="s">
+      <c r="J11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3181,145 +3203,145 @@
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="23"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="23"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="13" t="s">
+      <c r="I20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J20" s="13" t="s">
+      <c r="J20" s="18" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3327,177 +3349,177 @@
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="17" t="s">
+      <c r="E24" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G24" s="17" t="s">
+      <c r="G24" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" s="17" t="s">
+      <c r="E28" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
@@ -3517,13 +3539,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="2"/>
@@ -3537,9 +3559,9 @@
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3551,9 +3573,9 @@
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3565,9 +3587,9 @@
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3579,9 +3601,9 @@
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3593,9 +3615,9 @@
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="32"/>
-      <c r="C38" s="32"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -3607,9 +3629,9 @@
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
@@ -3624,6 +3646,44 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="D7:D10"/>
+    <mergeCell ref="E7:E10"/>
+    <mergeCell ref="F7:F10"/>
+    <mergeCell ref="G7:G10"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J19"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="G24:G27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
     <mergeCell ref="I28:I31"/>
     <mergeCell ref="J28:J31"/>
     <mergeCell ref="B33:B39"/>
@@ -3636,44 +3696,6 @@
     <mergeCell ref="D28:D31"/>
     <mergeCell ref="E28:E31"/>
     <mergeCell ref="F28:F31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C10"/>
-    <mergeCell ref="D7:D10"/>
-    <mergeCell ref="E7:E10"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="G7:G10"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="J7:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3683,8 +3705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE242408-A213-49C5-A8C5-09FACDF545F8}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3723,67 +3745,67 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10" t="s">
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3791,59 +3813,59 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="10"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3851,171 +3873,173 @@
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
         <v>0.59375</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
+        <v>44</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.625</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>49</v>
+      <c r="E24" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="F24" s="26" t="s">
         <v>22</v>
@@ -4023,101 +4047,101 @@
       <c r="G24" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="H24" s="10"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="21" t="s">
-        <v>50</v>
+      <c r="E28" s="25" t="s">
+        <v>48</v>
       </c>
       <c r="F28" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
         <v>0.69791666666666696</v>
       </c>
-      <c r="B30" s="18"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
         <v>0.70833333333333304</v>
       </c>
-      <c r="B31" s="19"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
@@ -4134,13 +4158,13 @@
       <c r="A33" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="25" t="s">
+      <c r="D33" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E33" s="4"/>
@@ -4151,9 +4175,9 @@
       <c r="A34" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -4162,9 +4186,9 @@
       <c r="A35" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B35" s="14"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -4173,9 +4197,9 @@
       <c r="A36" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -4184,9 +4208,9 @@
       <c r="A37" s="5">
         <v>0.77083333333332904</v>
       </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -4195,9 +4219,9 @@
       <c r="A38" s="5">
         <v>0.781249999999996</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -4206,9 +4230,9 @@
       <c r="A39" s="5">
         <v>0.79166666666666197</v>
       </c>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -4219,7 +4243,29 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="36">
+  <mergeCells count="34">
+    <mergeCell ref="H28:H31"/>
+    <mergeCell ref="H24:H27"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="D24:D27"/>
+    <mergeCell ref="E24:E27"/>
+    <mergeCell ref="F24:F27"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="B20:D23"/>
+    <mergeCell ref="E20:G23"/>
+    <mergeCell ref="B3:H6"/>
+    <mergeCell ref="B15:H19"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="E7:G8"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E11:G12"/>
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="C33:C39"/>
     <mergeCell ref="D33:D39"/>
@@ -4232,30 +4278,6 @@
     <mergeCell ref="G28:G31"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="B3:H6"/>
-    <mergeCell ref="B15:H19"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="E7:G8"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E11:G12"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="B20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4283,7 +4305,7 @@
       <c r="A2" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4291,25 +4313,25 @@
       <c r="A3" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="38"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="38"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="29" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4317,49 +4339,49 @@
       <c r="A7" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="29"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="29"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.5</v>
       </c>
-      <c r="B10" s="28"/>
+      <c r="B10" s="29"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="29"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B12" s="28"/>
+      <c r="B12" s="29"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="28"/>
+      <c r="B13" s="29"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="39" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4367,25 +4389,25 @@
       <c r="A15" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="40"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.5625</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="40"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
         <v>0.57291666666666696</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="40"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="41"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
@@ -4399,7 +4421,7 @@
       <c r="A20" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="29" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4407,37 +4429,37 @@
       <c r="A21" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="29"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.625</v>
       </c>
-      <c r="B22" s="28"/>
+      <c r="B22" s="29"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B23" s="28"/>
+      <c r="B23" s="29"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B24" s="28"/>
+      <c r="B24" s="29"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B25" s="28"/>
+      <c r="B25" s="29"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="29" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4445,13 +4467,13 @@
       <c r="A27" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B27" s="28"/>
+      <c r="B27" s="29"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="29"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
@@ -4477,7 +4499,7 @@
       <c r="A32" s="5">
         <v>0.72916666666666496</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="38" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4485,19 +4507,19 @@
       <c r="A33" s="5">
         <v>0.73958333333333104</v>
       </c>
-      <c r="B33" s="35"/>
+      <c r="B33" s="38"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
         <v>0.749999999999997</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="38"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
         <v>0.76041666666666297</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="38"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
@@ -4535,7 +4557,7 @@
       <c r="A41" s="5">
         <v>0.82291666666665997</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="38" t="s">
         <v>35</v>
       </c>
     </row>
@@ -4543,13 +4565,13 @@
       <c r="A42" s="5">
         <v>0.83333333333332604</v>
       </c>
-      <c r="B42" s="35"/>
+      <c r="B42" s="38"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43" s="5">
         <v>0.84374999999999201</v>
       </c>
-      <c r="B43" s="35"/>
+      <c r="B43" s="38"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="5">

--- a/input/harp-campA-time-table.xlsx
+++ b/input/harp-campA-time-table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmski\Desktop\Timetable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CF1217-48C1-4B79-B8DE-B56623E4F352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EF7CB4-3C3C-4F6D-AB51-686EC8D2A2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="24196" windowHeight="13875" activeTab="2" xr2:uid="{E318233D-D99F-47E3-BC58-6A555949ADA4}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="5" xr2:uid="{E318233D-D99F-47E3-BC58-6A555949ADA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Day 1" sheetId="1" r:id="rId1"/>
@@ -432,31 +432,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,11 +462,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -486,17 +483,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -856,10 +856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29AA8994-A59C-4360-A90B-0092B13CE7C1}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScale="73" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J19"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -905,89 +905,89 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="10" t="s">
         <v>12</v>
       </c>
     </row>
@@ -995,73 +995,73 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="15" t="s">
+      <c r="J11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1069,351 +1069,351 @@
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+        <v>0.562499999999999</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+        <v>0.57291666666666496</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+        <v>0.58333333333333104</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
-        <v>0.59375</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>9</v>
-      </c>
+        <v>0.593749999999997</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+        <v>0.60416666666666297</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.61458333333332904</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.624999999999996</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
-        <v>0.63541666666666696</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+        <v>0.63541666666666197</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+        <v>0.64583333333332804</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.656249999999994</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.66666666666665997</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+        <v>0.67708333333332604</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+        <v>0.68749999999999201</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
-        <v>0.69791666666666696</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+        <v>0.69791666666665797</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+        <v>0.70833333333332404</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
-        <v>0.718749999999999</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+        <v>0.71874999999999001</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
-        <v>0.72916666666666496</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>0.72916666666665597</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1423,11 +1423,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
-        <v>0.73958333333333104</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+        <v>0.73958333333332205</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1437,11 +1437,11 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
-        <v>0.749999999999997</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+        <v>0.74999999999998801</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -1451,11 +1451,11 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
-        <v>0.76041666666666297</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+        <v>0.76041666666665497</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1465,11 +1465,11 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
-        <v>0.77083333333332904</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+        <v>0.77083333333332105</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -1479,11 +1479,11 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
-        <v>0.781249999999996</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+        <v>0.78124999999998701</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -1492,32 +1492,58 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
-        <v>0.79166666666666197</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="5">
-        <v>0.80208333333332804</v>
-      </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="A39" s="5"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="B3:J6"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J18"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="I7:I10"/>
@@ -1526,48 +1552,6 @@
     <mergeCell ref="D7:D10"/>
     <mergeCell ref="E7:E10"/>
     <mergeCell ref="F7:F10"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="B3:J6"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1575,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116A65B0-7DAB-484E-AF35-6FA659C3D3C8}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+      <selection activeCell="A15" sqref="A15:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -1624,89 +1608,89 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1714,71 +1698,71 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1786,349 +1770,349 @@
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+        <v>0.562499999999999</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+        <v>0.57291666666666496</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+        <v>0.58333333333333104</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
-        <v>0.59375</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>11</v>
-      </c>
+        <v>0.593749999999997</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
+        <v>0.60416666666666297</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.61458333333332904</v>
+      </c>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.624999999999996</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
-        <v>0.63541666666666696</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+        <v>0.63541666666666197</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
+        <v>0.64583333333332804</v>
+      </c>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.656249999999994</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.66666666666665997</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+        <v>0.67708333333332604</v>
+      </c>
+      <c r="B28" s="29"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
+        <v>0.68749999999999201</v>
+      </c>
+      <c r="B29" s="29"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
-        <v>0.69791666666666696</v>
-      </c>
-      <c r="B30" s="27"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
+        <v>0.69791666666665797</v>
+      </c>
+      <c r="B30" s="29"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B31" s="27"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
+        <v>0.70833333333332404</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
-        <v>0.718749999999999</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+        <v>0.71874999999999001</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
-        <v>0.72916666666666496</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>0.72916666666665597</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2138,11 +2122,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
-        <v>0.73958333333333104</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+        <v>0.73958333333332205</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2152,11 +2136,11 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
-        <v>0.749999999999997</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+        <v>0.74999999999998801</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2166,11 +2150,11 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
-        <v>0.76041666666666297</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+        <v>0.76041666666665497</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2180,11 +2164,11 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
-        <v>0.77083333333332904</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+        <v>0.77083333333332105</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2194,11 +2178,11 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
-        <v>0.781249999999996</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+        <v>0.78124999999998701</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2207,26 +2191,50 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
-        <v>0.79166666666666197</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="5">
-        <v>0.80208333333332804</v>
-      </c>
+      <c r="A39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
     <mergeCell ref="B3:J6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
@@ -2237,46 +2245,6 @@
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2284,10 +2252,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AD9C713-98B7-4375-8CEF-16D9E327A4AA}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J6"/>
+    <sheetView topLeftCell="A5" zoomScale="68" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -2333,89 +2301,89 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2423,73 +2391,73 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="16" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2497,351 +2465,351 @@
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+        <v>0.562499999999999</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+        <v>0.57291666666666496</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+        <v>0.58333333333333104</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
-        <v>0.59375</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>4</v>
-      </c>
+        <v>0.593749999999997</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+        <v>0.60416666666666297</v>
+      </c>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.61458333333332904</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.624999999999996</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
-        <v>0.63541666666666696</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+        <v>0.63541666666666197</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+        <v>0.64583333333332804</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.656249999999994</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.66666666666665997</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+        <v>0.67708333333332604</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+        <v>0.68749999999999201</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
-        <v>0.69791666666666696</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+        <v>0.69791666666665797</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+        <v>0.70833333333332404</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
-        <v>0.718749999999999</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+        <v>0.71874999999999001</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
-        <v>0.72916666666666496</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>0.72916666666665597</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2851,11 +2819,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
-        <v>0.73958333333333104</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="11"/>
+        <v>0.73958333333332205</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2865,11 +2833,11 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
-        <v>0.749999999999997</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="11"/>
+        <v>0.74999999999998801</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
@@ -2879,11 +2847,11 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
-        <v>0.76041666666666297</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="11"/>
+        <v>0.76041666666665497</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2893,11 +2861,11 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
-        <v>0.77083333333332904</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="11"/>
+        <v>0.77083333333332105</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2907,11 +2875,11 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
-        <v>0.781249999999996</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="11"/>
+        <v>0.78124999999998701</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -2920,26 +2888,50 @@
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
-        <v>0.79166666666666197</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="5">
-        <v>0.80208333333332804</v>
-      </c>
+      <c r="A39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
     <mergeCell ref="B3:J6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
@@ -2950,46 +2942,6 @@
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2997,10 +2949,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D3998EB-A432-4B34-A0B3-3EAD88806972}">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView zoomScale="103" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:J19"/>
+    <sheetView topLeftCell="A4" zoomScale="103" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3039,89 +2991,89 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="18" t="s">
+      <c r="G7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J7" s="18" t="s">
+      <c r="J7" s="13" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3129,73 +3081,73 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.5</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="16" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3203,351 +3155,351 @@
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+        <v>0.562499999999999</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+        <v>0.57291666666666496</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+        <v>0.58333333333333104</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
-        <v>0.59375</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>6</v>
-      </c>
+        <v>0.593749999999997</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
+        <v>0.60416666666666297</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.61458333333332904</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.624999999999996</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
-        <v>0.63541666666666696</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+        <v>0.63541666666666197</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
+        <v>0.64583333333332804</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
+        <v>0.656249999999994</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.66666666666665997</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+        <v>0.67708333333332604</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
+        <v>0.68749999999999201</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
-        <v>0.69791666666666696</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
+        <v>0.69791666666665797</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
+        <v>0.70833333333332404</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
-        <v>0.718749999999999</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
+        <v>0.71874999999999001</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
-        <v>0.72916666666666496</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>0.72916666666665597</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3557,11 +3509,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
-        <v>0.73958333333333104</v>
-      </c>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="11"/>
+        <v>0.73958333333332205</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
@@ -3571,11 +3523,11 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
-        <v>0.749999999999997</v>
-      </c>
-      <c r="B35" s="30"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="11"/>
+        <v>0.74999999999998801</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
@@ -3585,11 +3537,11 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
-        <v>0.76041666666666297</v>
-      </c>
-      <c r="B36" s="30"/>
-      <c r="C36" s="30"/>
-      <c r="D36" s="11"/>
+        <v>0.76041666666665497</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
@@ -3599,11 +3551,11 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
-        <v>0.77083333333332904</v>
-      </c>
-      <c r="B37" s="30"/>
-      <c r="C37" s="30"/>
-      <c r="D37" s="11"/>
+        <v>0.77083333333332105</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
@@ -3613,11 +3565,11 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
-        <v>0.781249999999996</v>
-      </c>
-      <c r="B38" s="30"/>
-      <c r="C38" s="30"/>
-      <c r="D38" s="11"/>
+        <v>0.78124999999998701</v>
+      </c>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
@@ -3626,26 +3578,50 @@
       <c r="J38" s="2"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
-        <v>0.79166666666666197</v>
-      </c>
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A40" s="5">
-        <v>0.80208333333332804</v>
-      </c>
+      <c r="A39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="G19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C19:C22"/>
+    <mergeCell ref="D19:D22"/>
+    <mergeCell ref="E19:E22"/>
+    <mergeCell ref="F19:F22"/>
+    <mergeCell ref="G11:G14"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B15:J18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E11:E14"/>
+    <mergeCell ref="F11:F14"/>
     <mergeCell ref="B3:J6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="C7:C10"/>
@@ -3656,46 +3632,6 @@
     <mergeCell ref="H7:H10"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="J7:J10"/>
-    <mergeCell ref="G11:G14"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B15:J19"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D11:D14"/>
-    <mergeCell ref="E11:E14"/>
-    <mergeCell ref="F11:F14"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="J24:J27"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="J28:J31"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3703,10 +3639,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE242408-A213-49C5-A8C5-09FACDF545F8}">
-  <dimension ref="A1:H40"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D10"/>
+    <sheetView zoomScale="79" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.45"/>
@@ -3745,51 +3681,51 @@
       <c r="A3" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>0.4375</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>0.44791666666666702</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
@@ -3798,14 +3734,14 @@
       <c r="B7" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="15" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3813,43 +3749,43 @@
       <c r="A8" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="15" t="s">
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="15"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
@@ -3858,14 +3794,14 @@
       <c r="B11" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="15" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3873,389 +3809,377 @@
       <c r="A12" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="15" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="15"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>0.55208333333333304</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="5">
-        <v>0.5625</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+        <v>0.562499999999999</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="5">
-        <v>0.57291666666666696</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.57291666666666496</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="5">
-        <v>0.58333333333333304</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.58333333333333104</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="5">
-        <v>0.59375</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="35" t="s">
-        <v>49</v>
-      </c>
+        <v>0.593749999999997</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="36"/>
       <c r="F20" s="36"/>
       <c r="G20" s="36"/>
-      <c r="H20" s="15"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="5">
-        <v>0.60416666666666696</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
+        <v>0.60416666666666297</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="36"/>
       <c r="F21" s="36"/>
       <c r="G21" s="36"/>
-      <c r="H21" s="16"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
-        <v>0.61458333333333304</v>
-      </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.61458333333332904</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
-        <v>0.625</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.624999999999996</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
-        <v>0.63541666666666696</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="H24" s="15"/>
+        <v>0.63541666666666197</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
-        <v>0.64583333333333304</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
+        <v>0.64583333333332804</v>
+      </c>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
-        <v>0.65625</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+        <v>0.656249999999994</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="5">
-        <v>0.66666666666666696</v>
-      </c>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-    </row>
-    <row r="28" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+        <v>0.66666666666665997</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
-        <v>0.67708333333333304</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+        <v>0.67708333333332604</v>
+      </c>
+      <c r="B28" s="18"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
-        <v>0.6875</v>
-      </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
+        <v>0.68749999999999201</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="5">
-        <v>0.69791666666666696</v>
-      </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
+        <v>0.69791666666665797</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="5">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+        <v>0.70833333333332404</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="5">
-        <v>0.718749999999999</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
+        <v>0.71874999999999001</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="5">
-        <v>0.72916666666666496</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>20</v>
-      </c>
+        <v>0.72916666666665597</v>
+      </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="5">
-        <v>0.73958333333333104</v>
-      </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+        <v>0.73958333333332205</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="5">
-        <v>0.749999999999997</v>
-      </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+        <v>0.74999999999998801</v>
+      </c>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="5">
-        <v>0.76041666666666297</v>
-      </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+        <v>0.76041666666665497</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="5">
-        <v>0.77083333333332904</v>
-      </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+        <v>0.77083333333332105</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="5">
-        <v>0.781249999999996</v>
-      </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
+        <v>0.78124999999998701</v>
+      </c>
+      <c r="B38" s="15"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="15"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A39" s="5">
-        <v>0.79166666666666197</v>
-      </c>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A40" s="5">
-        <v>0.80208333333332804</v>
-      </c>
+      <c r="A39" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="H28:H31"/>
-    <mergeCell ref="H24:H27"/>
-    <mergeCell ref="H7:H10"/>
-    <mergeCell ref="H11:H14"/>
-    <mergeCell ref="D24:D27"/>
-    <mergeCell ref="E24:E27"/>
-    <mergeCell ref="F24:F27"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="B20:D23"/>
-    <mergeCell ref="E20:G23"/>
+    <mergeCell ref="B32:B38"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="D32:D38"/>
+    <mergeCell ref="G23:G26"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="D27:D30"/>
+    <mergeCell ref="E27:E30"/>
+    <mergeCell ref="F27:F30"/>
+    <mergeCell ref="G27:G30"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="C23:C26"/>
     <mergeCell ref="B3:H6"/>
-    <mergeCell ref="B15:H19"/>
+    <mergeCell ref="B15:H18"/>
     <mergeCell ref="B7:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
@@ -4266,18 +4190,16 @@
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="G13:G14"/>
     <mergeCell ref="E11:G12"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="C33:C39"/>
-    <mergeCell ref="D33:D39"/>
-    <mergeCell ref="G24:G27"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="C28:C31"/>
-    <mergeCell ref="D28:D31"/>
-    <mergeCell ref="E28:E31"/>
-    <mergeCell ref="F28:F31"/>
-    <mergeCell ref="G28:G31"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="H27:H30"/>
+    <mergeCell ref="H23:H26"/>
+    <mergeCell ref="H7:H10"/>
+    <mergeCell ref="H11:H14"/>
+    <mergeCell ref="D23:D26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="F23:F26"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="B19:D22"/>
+    <mergeCell ref="E19:G22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4287,7 +4209,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B46B8B14-C1FC-4368-9C36-E38F728D68D9}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -4331,7 +4253,7 @@
       <c r="A6" s="5">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="28" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4339,43 +4261,43 @@
       <c r="A7" s="5">
         <v>0.46875</v>
       </c>
-      <c r="B7" s="29"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B8" s="29"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>0.48958333333333298</v>
       </c>
-      <c r="B9" s="29"/>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>0.5</v>
       </c>
-      <c r="B10" s="29"/>
+      <c r="B10" s="28"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>0.51041666666666696</v>
       </c>
-      <c r="B11" s="29"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B12" s="29"/>
+      <c r="B12" s="28"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>0.53125</v>
       </c>
-      <c r="B13" s="29"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
@@ -4421,7 +4343,7 @@
       <c r="A20" s="5">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="28" t="s">
         <v>31</v>
       </c>
     </row>
@@ -4429,37 +4351,37 @@
       <c r="A21" s="5">
         <v>0.61458333333333304</v>
       </c>
-      <c r="B21" s="29"/>
+      <c r="B21" s="28"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="5">
         <v>0.625</v>
       </c>
-      <c r="B22" s="29"/>
+      <c r="B22" s="28"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="5">
         <v>0.63541666666666696</v>
       </c>
-      <c r="B23" s="29"/>
+      <c r="B23" s="28"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" s="5">
         <v>0.64583333333333304</v>
       </c>
-      <c r="B24" s="29"/>
+      <c r="B24" s="28"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" s="5">
         <v>0.65625</v>
       </c>
-      <c r="B25" s="29"/>
+      <c r="B25" s="28"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="5">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="28" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4467,13 +4389,13 @@
       <c r="A27" s="5">
         <v>0.67708333333333304</v>
       </c>
-      <c r="B27" s="29"/>
+      <c r="B27" s="28"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" s="5">
         <v>0.6875</v>
       </c>
-      <c r="B28" s="29"/>
+      <c r="B28" s="28"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" s="5">
